--- a/src/RefData/IndiaBudget-2023_24.xlsx
+++ b/src/RefData/IndiaBudget-2023_24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/NBProjs/bjmbcWar/src/RefData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A40B87-859A-0245-8626-F71FC59B7E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B983A6-2694-674A-8D97-C4A418B1489D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="500" windowWidth="49620" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1580" yWindow="500" windowWidth="49620" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REVENUE" sheetId="1" r:id="rId1"/>
@@ -468,8 +468,8 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -539,7 +539,7 @@
         <v>0.16639429465085648</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G22" si="1">F3*$E$1</f>
+        <f>F3*$E$1</f>
         <v>166394.29465085646</v>
       </c>
       <c r="H3" s="1">
@@ -567,7 +567,7 @@
         <v>0.16240880256341081</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G3:G22" si="1">F4*$E$1</f>
         <v>162408.80256341081</v>
       </c>
       <c r="H4" s="1">
@@ -1060,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="1"/>
+        <f>F22*$E$1</f>
         <v>1000000</v>
       </c>
     </row>
@@ -1081,12 +1081,15 @@
   </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1097,7 +1100,7 @@
         <v>1000000</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1107,13 +1110,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
+      <c r="E2" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1123,16 +1126,14 @@
       <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
+        <v>5.2746778372558235E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>52746.778372558234</v>
+      </c>
+      <c r="E3" s="1">
         <v>234359</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D29" si="0">C3/$C$29</f>
-        <v>5.2746778372558235E-2</v>
-      </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E29" si="1">D3*$B$1</f>
-        <v>52746.778372558234</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1142,16 +1143,14 @@
       <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
+        <v>9.739154859584398E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>97391.548595843982</v>
+      </c>
+      <c r="E4" s="1">
         <v>432720</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>9.739154859584398E-2</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="1"/>
-        <v>97391.548595843982</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1161,16 +1160,14 @@
       <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
+        <v>3.940945682920198E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>39409.456829201983</v>
+      </c>
+      <c r="E5" s="1">
         <v>175100</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>3.940945682920198E-2</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>39409.456829201983</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1180,16 +1177,14 @@
       <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
+        <v>4.4417226186424963E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44417.226186424959</v>
+      </c>
+      <c r="E6" s="1">
         <v>197350</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>4.4417226186424963E-2</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="1"/>
-        <v>44417.226186424959</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1199,16 +1194,14 @@
       <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
+        <v>5.0797912086527057E-4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>507.9791208652706</v>
+      </c>
+      <c r="E7" s="1">
         <v>2257</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>5.0797912086527057E-4</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="1"/>
-        <v>507.9791208652706</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1218,16 +1211,14 @@
       <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
+        <v>1.895390061344612E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>18953.90061344612</v>
+      </c>
+      <c r="E8" s="1">
         <v>84214</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>1.895390061344612E-2</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>18953.90061344612</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1237,16 +1228,14 @@
       <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
+        <v>1.084131425474489E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10841.31425474489</v>
+      </c>
+      <c r="E9" s="1">
         <v>48169</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>1.084131425474489E-2</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>10841.31425474489</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1256,16 +1245,14 @@
       <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
+        <v>1.326102339449789E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1326.102339449789</v>
+      </c>
+      <c r="E10" s="1">
         <v>5892</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>1.326102339449789E-3</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="1"/>
-        <v>1326.102339449789</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1275,16 +1262,14 @@
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
+        <v>2.5409984389263701E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>25409.9843892637</v>
+      </c>
+      <c r="E11" s="1">
         <v>112899</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>2.5409984389263701E-2</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="1"/>
-        <v>25409.9843892637</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1294,16 +1279,14 @@
       <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
+        <v>2.1362356338913226E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>21362.356338913225</v>
+      </c>
+      <c r="E12" s="1">
         <v>94915</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>2.1362356338913226E-2</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="1"/>
-        <v>21362.356338913225</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1313,16 +1296,14 @@
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
+        <v>4.0624825572078572E-3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4062.4825572078571</v>
+      </c>
+      <c r="E13" s="1">
         <v>18050</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>4.0624825572078572E-3</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>4062.4825572078571</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1332,16 +1313,14 @@
       <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
+        <v>3.0550769103345954E-3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3055.0769103345951</v>
+      </c>
+      <c r="E14" s="1">
         <v>13574</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0550769103345954E-3</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>3055.0769103345951</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1351,16 +1330,14 @@
       <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
+        <v>2.0021174424320339E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>20021.174424320339</v>
+      </c>
+      <c r="E15" s="1">
         <v>88956</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>2.0021174424320339E-2</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>20021.174424320339</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1370,16 +1347,14 @@
       <c r="B16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
+        <v>3.0365537904200133E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>30365.537904200133</v>
+      </c>
+      <c r="E16" s="1">
         <v>134917</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0365537904200133E-2</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>30365.537904200133</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1389,16 +1364,14 @@
       <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
+        <v>0.24306722159503194</v>
+      </c>
+      <c r="D17" s="1">
+        <v>243067.22159503194</v>
+      </c>
+      <c r="E17" s="1">
         <v>1079971</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.24306722159503194</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="1"/>
-        <v>243067.22159503194</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1408,16 +1381,14 @@
       <c r="B18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
+        <v>2.1038933212336623E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>21038.933212336622</v>
+      </c>
+      <c r="E18" s="1">
         <v>93478</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>2.1038933212336623E-2</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="1"/>
-        <v>21038.933212336622</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1427,16 +1398,14 @@
       <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
+        <v>2.7126130067862589E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>27126.130067862588</v>
+      </c>
+      <c r="E19" s="1">
         <v>120524</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>2.7126130067862589E-2</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="1"/>
-        <v>27126.130067862588</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1446,16 +1415,14 @@
       <c r="B20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
+        <v>1.4107280148797144E-3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1410.7280148797145</v>
+      </c>
+      <c r="E20" s="1">
         <v>6268</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>1.4107280148797144E-3</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="1"/>
-        <v>1410.7280148797145</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1465,16 +1432,14 @@
       <c r="B21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
+        <v>5.3612165931143506E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>53612.165931143507</v>
+      </c>
+      <c r="E21" s="1">
         <v>238204</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>5.3612165931143506E-2</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="1"/>
-        <v>53612.165931143507</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1484,16 +1449,14 @@
       <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
+        <v>7.2528255072589025E-3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7252.8255072589027</v>
+      </c>
+      <c r="E22" s="1">
         <v>32225</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>7.2528255072589025E-3</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="1"/>
-        <v>7252.8255072589027</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1503,16 +1466,14 @@
       <c r="B23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
+        <v>1.2396761177341205E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>12396.761177341205</v>
+      </c>
+      <c r="E23" s="1">
         <v>55080</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>1.2396761177341205E-2</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="1"/>
-        <v>12396.761177341205</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1522,16 +1483,14 @@
       <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
+        <v>4.3831823575272738E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>43831.823575272741</v>
+      </c>
+      <c r="E24" s="1">
         <v>194749</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>4.3831823575272738E-2</v>
-      </c>
-      <c r="E24" s="1">
-        <f t="shared" si="1"/>
-        <v>43831.823575272741</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1541,16 +1500,14 @@
       <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
+        <v>7.3066393343740488E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>73066.393343740492</v>
+      </c>
+      <c r="E25" s="1">
         <v>324641</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="0"/>
-        <v>7.3066393343740488E-2</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="1"/>
-        <v>73066.393343740492</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1560,16 +1517,14 @@
       <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
+        <v>0.11636795603786189</v>
+      </c>
+      <c r="D26" s="1">
+        <v>116367.95603786189</v>
+      </c>
+      <c r="E26" s="1">
         <v>517034</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="0"/>
-        <v>0.11636795603786189</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="1"/>
-        <v>116367.95603786189</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1579,16 +1534,14 @@
       <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
+        <v>1.3755723486505805E-2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>13755.723486505805</v>
+      </c>
+      <c r="E27" s="1">
         <v>61118</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" si="0"/>
-        <v>1.3755723486505805E-2</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="1"/>
-        <v>13755.723486505805</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1598,31 +1551,20 @@
       <c r="B28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
+        <v>1.7202419213989524E-2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>17202.419213989524</v>
+      </c>
+      <c r="E28" s="1">
         <v>76432</v>
       </c>
-      <c r="D28" s="2">
-        <f t="shared" si="0"/>
-        <v>1.7202419213989524E-2</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" si="1"/>
-        <v>17202.419213989524</v>
-      </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C29" s="1">
-        <f>SUM(C3:C28)</f>
-        <v>4443096</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
-      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
